--- a/datamining/final_data/sorted1958_nltk.xlsx
+++ b/datamining/final_data/sorted1958_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG2"/>
+  <dimension ref="A1:BM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,417 +442,317 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>page</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>parents</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>you</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>will</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>gifted-children</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>book</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>review</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>gifted-children</t>
+          <t>college</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>acceleration</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>gifted-child</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>helping</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>guidance</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>rj</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>helping</t>
+          <t>havighurst</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>university</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>katherine</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>acceleration</t>
+          <t>mary</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>rj</t>
+          <t>english</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>havighurst</t>
+          <t>senior</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>gifted-child</t>
+          <t>something</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>guidance</t>
+          <t>serves</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>mary</t>
+          <t>motivated</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>katherine</t>
+          <t>best</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>primary-school</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>primary-school</t>
+          <t>students</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>serves</t>
+          <t>superior</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>michigan-state-university</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>senior</t>
+          <t>honors</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>superior</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>camp</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>honors</t>
+          <t>reactions</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>michigan-state-university</t>
+          <t>pupils</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>pupils</t>
+          <t>common-sense</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>reactions</t>
+          <t>kough</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>education</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>services</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>elementary-school</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>elementary-school</t>
+          <t>level</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>camp</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>child</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>wisconsin</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>laboratory</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>educating</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>dehaan</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>kough</t>
+          <t>arts</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>common-sense</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>rf</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>michigan</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>florida</t>
+          <t>science</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>something</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>doing</t>
+          <t>cutts</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>educating</t>
+          <t>moseley</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>dehaan</t>
+          <t>ne</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>rf</t>
+          <t>jacksonville</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>macmurray</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>illinois</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>high-school</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>laboratory</t>
+          <t>collaborate</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>wisconsin</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>teaching</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>ne</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>moseley</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>cutts</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>bright</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>motivated</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>best</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>do</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>how</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
           <t>program</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>jacksonville</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>illinois</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>high-school</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>collaborate</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>macmurray</t>
         </is>
       </c>
     </row>
@@ -864,91 +764,91 @@
         <v>1958</v>
       </c>
       <c r="C2" t="n">
-        <v>2.07</v>
+        <v>2.84</v>
       </c>
       <c r="D2" t="n">
-        <v>2.07</v>
+        <v>2.84</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="I2" t="n">
-        <v>1.92</v>
+        <v>1.16</v>
       </c>
       <c r="J2" t="n">
-        <v>1.53</v>
+        <v>1.16</v>
       </c>
       <c r="K2" t="n">
-        <v>1.42</v>
+        <v>0.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.23</v>
+        <v>0.93</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>1.04</v>
+        <v>0.89</v>
       </c>
       <c r="O2" t="n">
-        <v>1.04</v>
+        <v>0.87</v>
       </c>
       <c r="P2" t="n">
-        <v>0.99</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0.88</v>
+        <v>0.72</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="U2" t="n">
-        <v>0.78</v>
+        <v>0.71</v>
       </c>
       <c r="V2" t="n">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="W2" t="n">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="X2" t="n">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="AF2" t="n">
         <v>0.64</v>
@@ -957,160 +857,100 @@
         <v>0.64</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.5900000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.5900000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="AJ2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AL2" t="n">
         <v>0.59</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AM2" t="n">
         <v>0.59</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AN2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AO2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AN2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
